--- a/simulation results/RMSE results (gamma=structured and expected).xlsx
+++ b/simulation results/RMSE results (gamma=structured and expected).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xijuan/local-fit-indices2/simulation results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5B36E61-72C0-9740-85F6-832FEB8C1775}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE632417-87B9-BC4D-B49D-0370C8D25367}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1300" yWindow="1500" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{CA617EC3-5ADF-A14C-B94A-F9A693526A99}"/>
+    <workbookView xWindow="0" yWindow="1340" windowWidth="23660" windowHeight="21000" xr2:uid="{CA617EC3-5ADF-A14C-B94A-F9A693526A99}"/>
   </bookViews>
   <sheets>
     <sheet name="original reliable" sheetId="1" r:id="rId1"/>
@@ -177,8 +177,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -495,8 +496,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72B887A4-1473-1749-9216-C67551BFB657}">
   <dimension ref="A1:G155"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:G155"/>
+    <sheetView tabSelected="1" zoomScale="160" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1406,22 +1407,22 @@
       <c r="A43" t="s">
         <v>21</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="1">
         <v>3.9286619000000002E-2</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="1">
         <v>2.9027959999999998E-2</v>
       </c>
-      <c r="D43">
+      <c r="D43" s="1">
         <v>2.105023E-2</v>
       </c>
-      <c r="E43">
+      <c r="E43" s="1">
         <v>2.3140979999999998E-2</v>
       </c>
-      <c r="F43">
+      <c r="F43" s="1">
         <v>2.2460919999999999E-2</v>
       </c>
-      <c r="G43">
+      <c r="G43" s="1">
         <v>2.37851E-2</v>
       </c>
     </row>
@@ -1429,22 +1430,22 @@
       <c r="A44" t="s">
         <v>22</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="1">
         <v>3.3985201999999999E-2</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="1">
         <v>2.4726310000000001E-2</v>
       </c>
-      <c r="D44">
+      <c r="D44" s="1">
         <v>1.8186250000000001E-2</v>
       </c>
-      <c r="E44">
+      <c r="E44" s="1">
         <v>2.0259719999999998E-2</v>
       </c>
-      <c r="F44">
+      <c r="F44" s="1">
         <v>1.9757670000000001E-2</v>
       </c>
-      <c r="G44">
+      <c r="G44" s="1">
         <v>2.0996540000000001E-2</v>
       </c>
     </row>
@@ -1452,22 +1453,22 @@
       <c r="A45" t="s">
         <v>23</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="1">
         <v>3.5420669000000002E-2</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="1">
         <v>2.645221E-2</v>
       </c>
-      <c r="D45">
+      <c r="D45" s="1">
         <v>1.94276E-2</v>
       </c>
-      <c r="E45">
+      <c r="E45" s="1">
         <v>2.178124E-2</v>
       </c>
-      <c r="F45">
+      <c r="F45" s="1">
         <v>2.1228940000000002E-2</v>
       </c>
-      <c r="G45">
+      <c r="G45" s="1">
         <v>2.254975E-2</v>
       </c>
     </row>
@@ -1475,22 +1476,22 @@
       <c r="A46" t="s">
         <v>24</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="1">
         <v>1.135573E-2</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="1">
         <v>2.3275609999999999E-2</v>
       </c>
-      <c r="D46">
+      <c r="D46" s="1">
         <v>2.894383E-2</v>
       </c>
-      <c r="E46">
+      <c r="E46" s="1">
         <v>3.7654899999999998E-2</v>
       </c>
-      <c r="F46">
+      <c r="F46" s="1">
         <v>3.8639819999999998E-2</v>
       </c>
-      <c r="G46">
+      <c r="G46" s="1">
         <v>4.196122E-2</v>
       </c>
     </row>
@@ -1498,22 +1499,22 @@
       <c r="A47" t="s">
         <v>25</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="1">
         <v>2.0790065E-2</v>
       </c>
-      <c r="C47">
+      <c r="C47" s="1">
         <v>2.3839840000000001E-2</v>
       </c>
-      <c r="D47">
+      <c r="D47" s="1">
         <v>2.2306530000000001E-2</v>
       </c>
-      <c r="E47">
+      <c r="E47" s="1">
         <v>2.6193589999999999E-2</v>
       </c>
-      <c r="F47">
+      <c r="F47" s="1">
         <v>2.5431789999999999E-2</v>
       </c>
-      <c r="G47">
+      <c r="G47" s="1">
         <v>2.6224609999999999E-2</v>
       </c>
     </row>
@@ -1521,22 +1522,22 @@
       <c r="A48" t="s">
         <v>26</v>
       </c>
-      <c r="B48">
+      <c r="B48" s="1">
         <v>8.7715390000000001E-3</v>
       </c>
-      <c r="C48">
+      <c r="C48" s="1">
         <v>2.315534E-2</v>
       </c>
-      <c r="D48">
+      <c r="D48" s="1">
         <v>3.175269E-2</v>
       </c>
-      <c r="E48">
+      <c r="E48" s="1">
         <v>3.9680220000000002E-2</v>
       </c>
-      <c r="F48">
+      <c r="F48" s="1">
         <v>4.2143229999999997E-2</v>
       </c>
-      <c r="G48">
+      <c r="G48" s="1">
         <v>4.7175349999999998E-2</v>
       </c>
     </row>
@@ -1544,22 +1545,22 @@
       <c r="A49" t="s">
         <v>27</v>
       </c>
-      <c r="B49">
+      <c r="B49" s="1">
         <v>8.9317609999999999E-3</v>
       </c>
-      <c r="C49">
+      <c r="C49" s="1">
         <v>2.3187679999999999E-2</v>
       </c>
-      <c r="D49">
+      <c r="D49" s="1">
         <v>3.120297E-2</v>
       </c>
-      <c r="E49">
+      <c r="E49" s="1">
         <v>4.0776069999999998E-2</v>
       </c>
-      <c r="F49">
+      <c r="F49" s="1">
         <v>4.3009360000000003E-2</v>
       </c>
-      <c r="G49">
+      <c r="G49" s="1">
         <v>4.757728E-2</v>
       </c>
     </row>
@@ -1567,22 +1568,22 @@
       <c r="A50" t="s">
         <v>28</v>
       </c>
-      <c r="B50">
+      <c r="B50" s="1">
         <v>1.974325E-2</v>
       </c>
-      <c r="C50">
+      <c r="C50" s="1">
         <v>2.3704329999999999E-2</v>
       </c>
-      <c r="D50">
+      <c r="D50" s="1">
         <v>2.2641930000000001E-2</v>
       </c>
-      <c r="E50">
+      <c r="E50" s="1">
         <v>2.6775839999999999E-2</v>
       </c>
-      <c r="F50">
+      <c r="F50" s="1">
         <v>2.607077E-2</v>
       </c>
-      <c r="G50">
+      <c r="G50" s="1">
         <v>2.6760490000000001E-2</v>
       </c>
     </row>
@@ -1590,22 +1591,22 @@
       <c r="A51" t="s">
         <v>29</v>
       </c>
-      <c r="B51">
+      <c r="B51" s="1">
         <v>6.303739E-3</v>
       </c>
-      <c r="C51">
+      <c r="C51" s="1">
         <v>2.3134490000000001E-2</v>
       </c>
-      <c r="D51">
+      <c r="D51" s="1">
         <v>3.5044579999999999E-2</v>
       </c>
-      <c r="E51">
+      <c r="E51" s="1">
         <v>4.3023060000000002E-2</v>
       </c>
-      <c r="F51">
+      <c r="F51" s="1">
         <v>4.709269E-2</v>
       </c>
-      <c r="G51">
+      <c r="G51" s="1">
         <v>5.3521520000000003E-2</v>
       </c>
     </row>
@@ -1975,7 +1976,7 @@
       <c r="F69">
         <v>1.7559769999999999E-2</v>
       </c>
-      <c r="G69">
+      <c r="G69" s="1">
         <v>1.8861739999999998E-2</v>
       </c>
     </row>
@@ -1998,7 +1999,7 @@
       <c r="F70">
         <v>1.6131889999999999E-2</v>
       </c>
-      <c r="G70">
+      <c r="G70" s="1">
         <v>1.7385560000000001E-2</v>
       </c>
     </row>
@@ -2021,7 +2022,7 @@
       <c r="F71">
         <v>1.689527E-2</v>
       </c>
-      <c r="G71">
+      <c r="G71" s="1">
         <v>1.8203359999999998E-2</v>
       </c>
     </row>
@@ -2044,7 +2045,7 @@
       <c r="F72">
         <v>2.5884580000000001E-2</v>
       </c>
-      <c r="G72">
+      <c r="G72" s="1">
         <v>2.7266120000000001E-2</v>
       </c>
     </row>
@@ -2067,7 +2068,7 @@
       <c r="F73">
         <v>1.9153199999999999E-2</v>
       </c>
-      <c r="G73">
+      <c r="G73" s="1">
         <v>1.9911700000000001E-2</v>
       </c>
     </row>
@@ -2090,7 +2091,7 @@
       <c r="F74">
         <v>2.7278859999999999E-2</v>
       </c>
-      <c r="G74">
+      <c r="G74" s="1">
         <v>2.9447870000000001E-2</v>
       </c>
     </row>
@@ -2113,7 +2114,7 @@
       <c r="F75">
         <v>2.822539E-2</v>
       </c>
-      <c r="G75">
+      <c r="G75" s="1">
         <v>3.0075210000000002E-2</v>
       </c>
     </row>
@@ -2136,7 +2137,7 @@
       <c r="F76">
         <v>1.943137E-2</v>
       </c>
-      <c r="G76">
+      <c r="G76" s="1">
         <v>2.0095700000000001E-2</v>
       </c>
     </row>
@@ -2159,7 +2160,7 @@
       <c r="F77">
         <v>3.0270709999999999E-2</v>
       </c>
-      <c r="G77">
+      <c r="G77" s="1">
         <v>3.323458E-2</v>
       </c>
     </row>
@@ -3834,7 +3835,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{691C19B6-C5EE-3B4B-B4B9-13BD157DE780}">
   <dimension ref="A1:G155"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="139" workbookViewId="0">
+    <sheetView zoomScale="139" workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>

--- a/simulation results/RMSE results (gamma=structured and expected).xlsx
+++ b/simulation results/RMSE results (gamma=structured and expected).xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xijuan/local-fit-indices2/simulation results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE632417-87B9-BC4D-B49D-0370C8D25367}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2FEF2E3-12E6-DD4D-ACB0-448F3CC0BC0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1340" windowWidth="23660" windowHeight="21000" xr2:uid="{CA617EC3-5ADF-A14C-B94A-F9A693526A99}"/>
+    <workbookView xWindow="0" yWindow="1340" windowWidth="23660" windowHeight="21000" activeTab="3" xr2:uid="{CA617EC3-5ADF-A14C-B94A-F9A693526A99}"/>
   </bookViews>
   <sheets>
     <sheet name="original reliable" sheetId="1" r:id="rId1"/>
     <sheet name="high reliable" sheetId="2" r:id="rId2"/>
+    <sheet name="maketab" sheetId="3" r:id="rId3"/>
+    <sheet name="maketab2" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="38">
   <si>
     <t>$n150</t>
   </si>
@@ -143,11 +145,23 @@
   <si>
     <t>$n1000</t>
   </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>mean</t>
+  </si>
+  <si>
+    <t>&amp;</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="168" formatCode="0.000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -179,7 +193,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -496,8 +510,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72B887A4-1473-1749-9216-C67551BFB657}">
   <dimension ref="A1:G155"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView topLeftCell="A27" zoomScale="160" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27:G51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1407,22 +1421,22 @@
       <c r="A43" t="s">
         <v>21</v>
       </c>
-      <c r="B43" s="1">
+      <c r="B43">
         <v>3.9286619000000002E-2</v>
       </c>
-      <c r="C43" s="1">
+      <c r="C43">
         <v>2.9027959999999998E-2</v>
       </c>
-      <c r="D43" s="1">
+      <c r="D43">
         <v>2.105023E-2</v>
       </c>
-      <c r="E43" s="1">
+      <c r="E43">
         <v>2.3140979999999998E-2</v>
       </c>
-      <c r="F43" s="1">
+      <c r="F43">
         <v>2.2460919999999999E-2</v>
       </c>
-      <c r="G43" s="1">
+      <c r="G43">
         <v>2.37851E-2</v>
       </c>
     </row>
@@ -1430,22 +1444,22 @@
       <c r="A44" t="s">
         <v>22</v>
       </c>
-      <c r="B44" s="1">
+      <c r="B44">
         <v>3.3985201999999999E-2</v>
       </c>
-      <c r="C44" s="1">
+      <c r="C44">
         <v>2.4726310000000001E-2</v>
       </c>
-      <c r="D44" s="1">
+      <c r="D44">
         <v>1.8186250000000001E-2</v>
       </c>
-      <c r="E44" s="1">
+      <c r="E44">
         <v>2.0259719999999998E-2</v>
       </c>
-      <c r="F44" s="1">
+      <c r="F44">
         <v>1.9757670000000001E-2</v>
       </c>
-      <c r="G44" s="1">
+      <c r="G44">
         <v>2.0996540000000001E-2</v>
       </c>
     </row>
@@ -1453,22 +1467,22 @@
       <c r="A45" t="s">
         <v>23</v>
       </c>
-      <c r="B45" s="1">
+      <c r="B45">
         <v>3.5420669000000002E-2</v>
       </c>
-      <c r="C45" s="1">
+      <c r="C45">
         <v>2.645221E-2</v>
       </c>
-      <c r="D45" s="1">
+      <c r="D45">
         <v>1.94276E-2</v>
       </c>
-      <c r="E45" s="1">
+      <c r="E45">
         <v>2.178124E-2</v>
       </c>
-      <c r="F45" s="1">
+      <c r="F45">
         <v>2.1228940000000002E-2</v>
       </c>
-      <c r="G45" s="1">
+      <c r="G45">
         <v>2.254975E-2</v>
       </c>
     </row>
@@ -1476,22 +1490,22 @@
       <c r="A46" t="s">
         <v>24</v>
       </c>
-      <c r="B46" s="1">
+      <c r="B46">
         <v>1.135573E-2</v>
       </c>
-      <c r="C46" s="1">
+      <c r="C46">
         <v>2.3275609999999999E-2</v>
       </c>
-      <c r="D46" s="1">
+      <c r="D46">
         <v>2.894383E-2</v>
       </c>
-      <c r="E46" s="1">
+      <c r="E46">
         <v>3.7654899999999998E-2</v>
       </c>
-      <c r="F46" s="1">
+      <c r="F46">
         <v>3.8639819999999998E-2</v>
       </c>
-      <c r="G46" s="1">
+      <c r="G46">
         <v>4.196122E-2</v>
       </c>
     </row>
@@ -1499,22 +1513,22 @@
       <c r="A47" t="s">
         <v>25</v>
       </c>
-      <c r="B47" s="1">
+      <c r="B47">
         <v>2.0790065E-2</v>
       </c>
-      <c r="C47" s="1">
+      <c r="C47">
         <v>2.3839840000000001E-2</v>
       </c>
-      <c r="D47" s="1">
+      <c r="D47">
         <v>2.2306530000000001E-2</v>
       </c>
-      <c r="E47" s="1">
+      <c r="E47">
         <v>2.6193589999999999E-2</v>
       </c>
-      <c r="F47" s="1">
+      <c r="F47">
         <v>2.5431789999999999E-2</v>
       </c>
-      <c r="G47" s="1">
+      <c r="G47">
         <v>2.6224609999999999E-2</v>
       </c>
     </row>
@@ -1522,22 +1536,22 @@
       <c r="A48" t="s">
         <v>26</v>
       </c>
-      <c r="B48" s="1">
+      <c r="B48">
         <v>8.7715390000000001E-3</v>
       </c>
-      <c r="C48" s="1">
+      <c r="C48">
         <v>2.315534E-2</v>
       </c>
-      <c r="D48" s="1">
+      <c r="D48">
         <v>3.175269E-2</v>
       </c>
-      <c r="E48" s="1">
+      <c r="E48">
         <v>3.9680220000000002E-2</v>
       </c>
-      <c r="F48" s="1">
+      <c r="F48">
         <v>4.2143229999999997E-2</v>
       </c>
-      <c r="G48" s="1">
+      <c r="G48">
         <v>4.7175349999999998E-2</v>
       </c>
     </row>
@@ -1545,22 +1559,22 @@
       <c r="A49" t="s">
         <v>27</v>
       </c>
-      <c r="B49" s="1">
+      <c r="B49">
         <v>8.9317609999999999E-3</v>
       </c>
-      <c r="C49" s="1">
+      <c r="C49">
         <v>2.3187679999999999E-2</v>
       </c>
-      <c r="D49" s="1">
+      <c r="D49">
         <v>3.120297E-2</v>
       </c>
-      <c r="E49" s="1">
+      <c r="E49">
         <v>4.0776069999999998E-2</v>
       </c>
-      <c r="F49" s="1">
+      <c r="F49">
         <v>4.3009360000000003E-2</v>
       </c>
-      <c r="G49" s="1">
+      <c r="G49">
         <v>4.757728E-2</v>
       </c>
     </row>
@@ -1568,22 +1582,22 @@
       <c r="A50" t="s">
         <v>28</v>
       </c>
-      <c r="B50" s="1">
+      <c r="B50">
         <v>1.974325E-2</v>
       </c>
-      <c r="C50" s="1">
+      <c r="C50">
         <v>2.3704329999999999E-2</v>
       </c>
-      <c r="D50" s="1">
+      <c r="D50">
         <v>2.2641930000000001E-2</v>
       </c>
-      <c r="E50" s="1">
+      <c r="E50">
         <v>2.6775839999999999E-2</v>
       </c>
-      <c r="F50" s="1">
+      <c r="F50">
         <v>2.607077E-2</v>
       </c>
-      <c r="G50" s="1">
+      <c r="G50">
         <v>2.6760490000000001E-2</v>
       </c>
     </row>
@@ -1591,22 +1605,22 @@
       <c r="A51" t="s">
         <v>29</v>
       </c>
-      <c r="B51" s="1">
+      <c r="B51">
         <v>6.303739E-3</v>
       </c>
-      <c r="C51" s="1">
+      <c r="C51">
         <v>2.3134490000000001E-2</v>
       </c>
-      <c r="D51" s="1">
+      <c r="D51">
         <v>3.5044579999999999E-2</v>
       </c>
-      <c r="E51" s="1">
+      <c r="E51">
         <v>4.3023060000000002E-2</v>
       </c>
-      <c r="F51" s="1">
+      <c r="F51">
         <v>4.709269E-2</v>
       </c>
-      <c r="G51" s="1">
+      <c r="G51">
         <v>5.3521520000000003E-2</v>
       </c>
     </row>
@@ -1976,7 +1990,7 @@
       <c r="F69">
         <v>1.7559769999999999E-2</v>
       </c>
-      <c r="G69" s="1">
+      <c r="G69">
         <v>1.8861739999999998E-2</v>
       </c>
     </row>
@@ -1999,7 +2013,7 @@
       <c r="F70">
         <v>1.6131889999999999E-2</v>
       </c>
-      <c r="G70" s="1">
+      <c r="G70">
         <v>1.7385560000000001E-2</v>
       </c>
     </row>
@@ -2022,7 +2036,7 @@
       <c r="F71">
         <v>1.689527E-2</v>
       </c>
-      <c r="G71" s="1">
+      <c r="G71">
         <v>1.8203359999999998E-2</v>
       </c>
     </row>
@@ -2045,7 +2059,7 @@
       <c r="F72">
         <v>2.5884580000000001E-2</v>
       </c>
-      <c r="G72" s="1">
+      <c r="G72">
         <v>2.7266120000000001E-2</v>
       </c>
     </row>
@@ -2068,7 +2082,7 @@
       <c r="F73">
         <v>1.9153199999999999E-2</v>
       </c>
-      <c r="G73" s="1">
+      <c r="G73">
         <v>1.9911700000000001E-2</v>
       </c>
     </row>
@@ -2091,7 +2105,7 @@
       <c r="F74">
         <v>2.7278859999999999E-2</v>
       </c>
-      <c r="G74" s="1">
+      <c r="G74">
         <v>2.9447870000000001E-2</v>
       </c>
     </row>
@@ -2114,7 +2128,7 @@
       <c r="F75">
         <v>2.822539E-2</v>
       </c>
-      <c r="G75" s="1">
+      <c r="G75">
         <v>3.0075210000000002E-2</v>
       </c>
     </row>
@@ -2137,7 +2151,7 @@
       <c r="F76">
         <v>1.943137E-2</v>
       </c>
-      <c r="G76" s="1">
+      <c r="G76">
         <v>2.0095700000000001E-2</v>
       </c>
     </row>
@@ -2160,7 +2174,7 @@
       <c r="F77">
         <v>3.0270709999999999E-2</v>
       </c>
-      <c r="G77" s="1">
+      <c r="G77">
         <v>3.323458E-2</v>
       </c>
     </row>
@@ -3835,8 +3849,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{691C19B6-C5EE-3B4B-B4B9-13BD157DE780}">
   <dimension ref="A1:G155"/>
   <sheetViews>
-    <sheetView zoomScale="139" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView topLeftCell="A21" zoomScale="139" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27:G51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7176,4 +7190,3273 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CD219D7-B02C-954E-98BE-76A82E3C1665}">
+  <dimension ref="A1:P25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:P1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s">
+        <v>5</v>
+      </c>
+      <c r="O2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <v>0.177940934</v>
+      </c>
+      <c r="C3">
+        <v>0.12657708000000001</v>
+      </c>
+      <c r="D3">
+        <v>0.10782264</v>
+      </c>
+      <c r="E3">
+        <v>0.10047307</v>
+      </c>
+      <c r="F3">
+        <v>9.7523869999999999E-2</v>
+      </c>
+      <c r="G3">
+        <v>9.0765129999999999E-2</v>
+      </c>
+      <c r="H3">
+        <f>AVERAGE(B3:G3)</f>
+        <v>0.11685045399999998</v>
+      </c>
+      <c r="I3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3">
+        <v>7.1615442000000001E-2</v>
+      </c>
+      <c r="K3">
+        <v>4.5010790000000002E-2</v>
+      </c>
+      <c r="L3">
+        <v>4.1218829999999998E-2</v>
+      </c>
+      <c r="M3">
+        <v>3.7893780000000002E-2</v>
+      </c>
+      <c r="N3">
+        <v>3.7133060000000002E-2</v>
+      </c>
+      <c r="O3">
+        <v>3.475843E-2</v>
+      </c>
+      <c r="P3">
+        <f>AVERAGE(J3:O3)</f>
+        <v>4.4605055333333331E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>0.115636724</v>
+      </c>
+      <c r="C4">
+        <v>9.0691869999999994E-2</v>
+      </c>
+      <c r="D4">
+        <v>0.10293666999999999</v>
+      </c>
+      <c r="E4">
+        <v>9.4783649999999997E-2</v>
+      </c>
+      <c r="F4">
+        <v>9.4711420000000004E-2</v>
+      </c>
+      <c r="G4">
+        <v>8.7904529999999995E-2</v>
+      </c>
+      <c r="H4">
+        <f t="shared" ref="H4:H25" si="0">AVERAGE(B4:G4)</f>
+        <v>9.7777477333333321E-2</v>
+      </c>
+      <c r="I4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4">
+        <v>5.0424256000000001E-2</v>
+      </c>
+      <c r="K4">
+        <v>4.7654700000000001E-2</v>
+      </c>
+      <c r="L4">
+        <v>4.4395850000000001E-2</v>
+      </c>
+      <c r="M4">
+        <v>4.018907E-2</v>
+      </c>
+      <c r="N4">
+        <v>3.8378290000000002E-2</v>
+      </c>
+      <c r="O4">
+        <v>3.5308680000000002E-2</v>
+      </c>
+      <c r="P4">
+        <f t="shared" ref="P4:P25" si="1">AVERAGE(J4:O4)</f>
+        <v>4.2725141000000001E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>0.115449501</v>
+      </c>
+      <c r="C5">
+        <v>9.1525400000000007E-2</v>
+      </c>
+      <c r="D5">
+        <v>0.10289745</v>
+      </c>
+      <c r="E5">
+        <v>9.5431749999999996E-2</v>
+      </c>
+      <c r="F5">
+        <v>9.5481689999999994E-2</v>
+      </c>
+      <c r="G5">
+        <v>8.8471930000000004E-2</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>9.8209620166666664E-2</v>
+      </c>
+      <c r="I5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J5">
+        <v>4.9961617E-2</v>
+      </c>
+      <c r="K5">
+        <v>4.770452E-2</v>
+      </c>
+      <c r="L5">
+        <v>4.440939E-2</v>
+      </c>
+      <c r="M5">
+        <v>4.031233E-2</v>
+      </c>
+      <c r="N5">
+        <v>3.8426229999999999E-2</v>
+      </c>
+      <c r="O5">
+        <v>3.5342129999999999E-2</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="1"/>
+        <v>4.2692702833333339E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>0.14083651999999999</v>
+      </c>
+      <c r="C6">
+        <v>0.10795585000000001</v>
+      </c>
+      <c r="D6">
+        <v>0.11328096</v>
+      </c>
+      <c r="E6">
+        <v>0.10376299</v>
+      </c>
+      <c r="F6">
+        <v>0.10429090000000001</v>
+      </c>
+      <c r="G6">
+        <v>9.6701129999999996E-2</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>0.11113805833333333</v>
+      </c>
+      <c r="I6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J6">
+        <v>5.3775402999999999E-2</v>
+      </c>
+      <c r="K6">
+        <v>4.8072509999999999E-2</v>
+      </c>
+      <c r="L6">
+        <v>4.500941E-2</v>
+      </c>
+      <c r="M6">
+        <v>4.0986149999999999E-2</v>
+      </c>
+      <c r="N6">
+        <v>3.9407669999999999E-2</v>
+      </c>
+      <c r="O6">
+        <v>3.6677170000000002E-2</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="1"/>
+        <v>4.3988052166666659E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7">
+        <v>0.111195293</v>
+      </c>
+      <c r="C7">
+        <v>8.8112940000000001E-2</v>
+      </c>
+      <c r="D7">
+        <v>0.10267231</v>
+      </c>
+      <c r="E7">
+        <v>9.498703E-2</v>
+      </c>
+      <c r="F7">
+        <v>9.5198500000000005E-2</v>
+      </c>
+      <c r="G7">
+        <v>8.8533440000000005E-2</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>9.6783252166666667E-2</v>
+      </c>
+      <c r="I7" t="s">
+        <v>11</v>
+      </c>
+      <c r="J7">
+        <v>5.0792772E-2</v>
+      </c>
+      <c r="K7">
+        <v>4.7525409999999997E-2</v>
+      </c>
+      <c r="L7">
+        <v>4.4196069999999997E-2</v>
+      </c>
+      <c r="M7">
+        <v>4.0141839999999998E-2</v>
+      </c>
+      <c r="N7">
+        <v>3.8298459999999999E-2</v>
+      </c>
+      <c r="O7">
+        <v>3.5261760000000003E-2</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="1"/>
+        <v>4.2702718666666667E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8">
+        <v>0.11042386899999999</v>
+      </c>
+      <c r="C8">
+        <v>8.87632E-2</v>
+      </c>
+      <c r="D8">
+        <v>0.10241073000000001</v>
+      </c>
+      <c r="E8">
+        <v>9.5770460000000002E-2</v>
+      </c>
+      <c r="F8">
+        <v>9.6094869999999999E-2</v>
+      </c>
+      <c r="G8">
+        <v>8.9275530000000006E-2</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>9.7123109833333332E-2</v>
+      </c>
+      <c r="I8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J8">
+        <v>5.0321879E-2</v>
+      </c>
+      <c r="K8">
+        <v>4.7586959999999998E-2</v>
+      </c>
+      <c r="L8">
+        <v>4.4185299999999997E-2</v>
+      </c>
+      <c r="M8">
+        <v>4.025157E-2</v>
+      </c>
+      <c r="N8">
+        <v>3.8329960000000003E-2</v>
+      </c>
+      <c r="O8">
+        <v>3.5292039999999997E-2</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="1"/>
+        <v>4.2661284833333334E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9">
+        <v>0.140176205</v>
+      </c>
+      <c r="C9">
+        <v>0.10754130000000001</v>
+      </c>
+      <c r="D9">
+        <v>0.11519778999999999</v>
+      </c>
+      <c r="E9">
+        <v>0.1055826</v>
+      </c>
+      <c r="F9">
+        <v>0.10668139</v>
+      </c>
+      <c r="G9">
+        <v>9.9405720000000003E-2</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>0.11243083416666666</v>
+      </c>
+      <c r="I9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J9">
+        <v>5.4166798000000002E-2</v>
+      </c>
+      <c r="K9">
+        <v>4.7976049999999999E-2</v>
+      </c>
+      <c r="L9">
+        <v>4.4981100000000003E-2</v>
+      </c>
+      <c r="M9">
+        <v>4.0997440000000003E-2</v>
+      </c>
+      <c r="N9">
+        <v>3.9456829999999998E-2</v>
+      </c>
+      <c r="O9">
+        <v>3.6801929999999997E-2</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="1"/>
+        <v>4.4063357999999997E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10">
+        <v>6.3099865000000005E-2</v>
+      </c>
+      <c r="C10">
+        <v>6.8165180000000006E-2</v>
+      </c>
+      <c r="D10">
+        <v>7.8755210000000006E-2</v>
+      </c>
+      <c r="E10">
+        <v>8.2505389999999998E-2</v>
+      </c>
+      <c r="F10">
+        <v>8.7065600000000007E-2</v>
+      </c>
+      <c r="G10">
+        <v>9.3488699999999994E-2</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>7.8846657500000014E-2</v>
+      </c>
+      <c r="I10" t="s">
+        <v>14</v>
+      </c>
+      <c r="J10">
+        <v>1.3195528E-2</v>
+      </c>
+      <c r="K10">
+        <v>1.750175E-2</v>
+      </c>
+      <c r="L10">
+        <v>2.811661E-2</v>
+      </c>
+      <c r="M10">
+        <v>3.0352529999999999E-2</v>
+      </c>
+      <c r="N10">
+        <v>3.4342879999999999E-2</v>
+      </c>
+      <c r="O10">
+        <v>3.9238729999999999E-2</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="1"/>
+        <v>2.7124671333333333E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11">
+        <v>5.4834031999999998E-2</v>
+      </c>
+      <c r="C11">
+        <v>5.6060350000000002E-2</v>
+      </c>
+      <c r="D11">
+        <v>7.881088E-2</v>
+      </c>
+      <c r="E11">
+        <v>7.9188670000000003E-2</v>
+      </c>
+      <c r="F11">
+        <v>8.8830210000000007E-2</v>
+      </c>
+      <c r="G11">
+        <v>9.8415639999999999E-2</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="0"/>
+        <v>7.6023297000000004E-2</v>
+      </c>
+      <c r="I11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J11">
+        <v>9.0073889999999993E-3</v>
+      </c>
+      <c r="K11">
+        <v>1.3818189999999999E-2</v>
+      </c>
+      <c r="L11">
+        <v>2.7321910000000001E-2</v>
+      </c>
+      <c r="M11">
+        <v>2.9441709999999999E-2</v>
+      </c>
+      <c r="N11">
+        <v>3.3921220000000002E-2</v>
+      </c>
+      <c r="O11">
+        <v>3.9056239999999999E-2</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="1"/>
+        <v>2.5427776499999999E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12">
+        <v>4.1809262999999999E-2</v>
+      </c>
+      <c r="C12">
+        <v>4.3853959999999997E-2</v>
+      </c>
+      <c r="D12">
+        <v>6.4291119999999993E-2</v>
+      </c>
+      <c r="E12">
+        <v>6.5817180000000003E-2</v>
+      </c>
+      <c r="F12">
+        <v>7.4429179999999998E-2</v>
+      </c>
+      <c r="G12">
+        <v>8.2962300000000003E-2</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>6.219383383333333E-2</v>
+      </c>
+      <c r="I12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12">
+        <v>8.8612299999999995E-3</v>
+      </c>
+      <c r="K12">
+        <v>1.354342E-2</v>
+      </c>
+      <c r="L12">
+        <v>2.7006849999999999E-2</v>
+      </c>
+      <c r="M12">
+        <v>2.9097970000000001E-2</v>
+      </c>
+      <c r="N12">
+        <v>3.3523480000000001E-2</v>
+      </c>
+      <c r="O12">
+        <v>3.8586639999999998E-2</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="1"/>
+        <v>2.5103265E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13">
+        <v>5.4834031999999998E-2</v>
+      </c>
+      <c r="C13">
+        <v>5.6060350000000002E-2</v>
+      </c>
+      <c r="D13">
+        <v>7.881088E-2</v>
+      </c>
+      <c r="E13">
+        <v>7.9188670000000003E-2</v>
+      </c>
+      <c r="F13">
+        <v>8.8830210000000007E-2</v>
+      </c>
+      <c r="G13">
+        <v>9.8415639999999999E-2</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="0"/>
+        <v>7.6023297000000004E-2</v>
+      </c>
+      <c r="I13" t="s">
+        <v>17</v>
+      </c>
+      <c r="J13">
+        <v>9.0073889999999993E-3</v>
+      </c>
+      <c r="K13">
+        <v>1.3818189999999999E-2</v>
+      </c>
+      <c r="L13">
+        <v>2.7321910000000001E-2</v>
+      </c>
+      <c r="M13">
+        <v>2.9441709999999999E-2</v>
+      </c>
+      <c r="N13">
+        <v>3.3921220000000002E-2</v>
+      </c>
+      <c r="O13">
+        <v>3.9056239999999999E-2</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="1"/>
+        <v>2.5427776499999999E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14">
+        <v>6.6705927999999998E-2</v>
+      </c>
+      <c r="C14">
+        <v>6.7419770000000004E-2</v>
+      </c>
+      <c r="D14">
+        <v>9.2812679999999995E-2</v>
+      </c>
+      <c r="E14">
+        <v>9.2383629999999994E-2</v>
+      </c>
+      <c r="F14">
+        <v>0.10464324999999999</v>
+      </c>
+      <c r="G14">
+        <v>0.11438513</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="0"/>
+        <v>8.9725064666666673E-2</v>
+      </c>
+      <c r="I14" t="s">
+        <v>18</v>
+      </c>
+      <c r="J14">
+        <v>9.1231060000000006E-3</v>
+      </c>
+      <c r="K14">
+        <v>1.3926030000000001E-2</v>
+      </c>
+      <c r="L14">
+        <v>2.7448219999999999E-2</v>
+      </c>
+      <c r="M14">
+        <v>2.9574309999999999E-2</v>
+      </c>
+      <c r="N14">
+        <v>3.4064900000000002E-2</v>
+      </c>
+      <c r="O14">
+        <v>3.9249329999999999E-2</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="1"/>
+        <v>2.5564316E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15">
+        <v>4.1288147999999997E-2</v>
+      </c>
+      <c r="C15">
+        <v>4.3235750000000003E-2</v>
+      </c>
+      <c r="D15">
+        <v>6.5151429999999996E-2</v>
+      </c>
+      <c r="E15">
+        <v>6.6599249999999999E-2</v>
+      </c>
+      <c r="F15">
+        <v>7.5861810000000002E-2</v>
+      </c>
+      <c r="G15">
+        <v>8.5102650000000002E-2</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="0"/>
+        <v>6.2873172999999991E-2</v>
+      </c>
+      <c r="I15" t="s">
+        <v>19</v>
+      </c>
+      <c r="J15">
+        <v>8.9699289999999997E-3</v>
+      </c>
+      <c r="K15">
+        <v>1.3649659999999999E-2</v>
+      </c>
+      <c r="L15">
+        <v>2.7072289999999999E-2</v>
+      </c>
+      <c r="M15">
+        <v>2.9181370000000002E-2</v>
+      </c>
+      <c r="N15">
+        <v>3.3603380000000002E-2</v>
+      </c>
+      <c r="O15">
+        <v>3.8704410000000002E-2</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="1"/>
+        <v>2.5196839833333332E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16">
+        <v>5.2028431999999999E-2</v>
+      </c>
+      <c r="C16">
+        <v>5.3131959999999999E-2</v>
+      </c>
+      <c r="D16">
+        <v>7.4478639999999999E-2</v>
+      </c>
+      <c r="E16">
+        <v>7.4868240000000003E-2</v>
+      </c>
+      <c r="F16">
+        <v>8.4680400000000003E-2</v>
+      </c>
+      <c r="G16">
+        <v>9.3387440000000002E-2</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="0"/>
+        <v>7.2095852000000002E-2</v>
+      </c>
+      <c r="I16" t="s">
+        <v>20</v>
+      </c>
+      <c r="J16">
+        <v>9.4753119999999996E-3</v>
+      </c>
+      <c r="K16">
+        <v>1.3970720000000001E-2</v>
+      </c>
+      <c r="L16">
+        <v>2.7614340000000001E-2</v>
+      </c>
+      <c r="M16">
+        <v>2.95115E-2</v>
+      </c>
+      <c r="N16">
+        <v>3.4107699999999998E-2</v>
+      </c>
+      <c r="O16">
+        <v>3.9594799999999999E-2</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="1"/>
+        <v>2.5712395333333332E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17">
+        <v>3.9286619000000002E-2</v>
+      </c>
+      <c r="C17">
+        <v>2.9027959999999998E-2</v>
+      </c>
+      <c r="D17">
+        <v>2.105023E-2</v>
+      </c>
+      <c r="E17">
+        <v>2.3140979999999998E-2</v>
+      </c>
+      <c r="F17">
+        <v>2.2460919999999999E-2</v>
+      </c>
+      <c r="G17">
+        <v>2.37851E-2</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="0"/>
+        <v>2.6458634833333331E-2</v>
+      </c>
+      <c r="I17" t="s">
+        <v>21</v>
+      </c>
+      <c r="J17">
+        <v>2.4683865999999999E-2</v>
+      </c>
+      <c r="K17">
+        <v>1.579962E-2</v>
+      </c>
+      <c r="L17">
+        <v>1.2186809999999999E-2</v>
+      </c>
+      <c r="M17">
+        <v>1.3641800000000001E-2</v>
+      </c>
+      <c r="N17">
+        <v>1.3449269999999999E-2</v>
+      </c>
+      <c r="O17">
+        <v>1.414665E-2</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="1"/>
+        <v>1.5651335999999998E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18">
+        <v>3.3985201999999999E-2</v>
+      </c>
+      <c r="C18">
+        <v>2.4726310000000001E-2</v>
+      </c>
+      <c r="D18">
+        <v>1.8186250000000001E-2</v>
+      </c>
+      <c r="E18">
+        <v>2.0259719999999998E-2</v>
+      </c>
+      <c r="F18">
+        <v>1.9757670000000001E-2</v>
+      </c>
+      <c r="G18">
+        <v>2.0996540000000001E-2</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="0"/>
+        <v>2.2985281999999999E-2</v>
+      </c>
+      <c r="I18" t="s">
+        <v>22</v>
+      </c>
+      <c r="J18">
+        <v>1.6734476000000002E-2</v>
+      </c>
+      <c r="K18">
+        <v>1.4758490000000001E-2</v>
+      </c>
+      <c r="L18">
+        <v>1.131791E-2</v>
+      </c>
+      <c r="M18">
+        <v>1.2914170000000001E-2</v>
+      </c>
+      <c r="N18">
+        <v>1.268656E-2</v>
+      </c>
+      <c r="O18">
+        <v>1.330894E-2</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="1"/>
+        <v>1.3620091000000003E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19">
+        <v>3.5420669000000002E-2</v>
+      </c>
+      <c r="C19">
+        <v>2.645221E-2</v>
+      </c>
+      <c r="D19">
+        <v>1.94276E-2</v>
+      </c>
+      <c r="E19">
+        <v>2.178124E-2</v>
+      </c>
+      <c r="F19">
+        <v>2.1228940000000002E-2</v>
+      </c>
+      <c r="G19">
+        <v>2.254975E-2</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="0"/>
+        <v>2.4476734833333336E-2</v>
+      </c>
+      <c r="I19" t="s">
+        <v>23</v>
+      </c>
+      <c r="J19">
+        <v>1.7787448000000001E-2</v>
+      </c>
+      <c r="K19">
+        <v>1.5206910000000001E-2</v>
+      </c>
+      <c r="L19">
+        <v>1.161005E-2</v>
+      </c>
+      <c r="M19">
+        <v>1.3244260000000001E-2</v>
+      </c>
+      <c r="N19">
+        <v>1.301598E-2</v>
+      </c>
+      <c r="O19">
+        <v>1.362353E-2</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="1"/>
+        <v>1.4081363E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20">
+        <v>1.135573E-2</v>
+      </c>
+      <c r="C20">
+        <v>2.3275609999999999E-2</v>
+      </c>
+      <c r="D20">
+        <v>2.894383E-2</v>
+      </c>
+      <c r="E20">
+        <v>3.7654899999999998E-2</v>
+      </c>
+      <c r="F20">
+        <v>3.8639819999999998E-2</v>
+      </c>
+      <c r="G20">
+        <v>4.196122E-2</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="0"/>
+        <v>3.0305184999999998E-2</v>
+      </c>
+      <c r="I20" t="s">
+        <v>24</v>
+      </c>
+      <c r="J20">
+        <v>1.0989128000000001E-2</v>
+      </c>
+      <c r="K20">
+        <v>1.7487160000000002E-2</v>
+      </c>
+      <c r="L20">
+        <v>1.375211E-2</v>
+      </c>
+      <c r="M20">
+        <v>1.547627E-2</v>
+      </c>
+      <c r="N20">
+        <v>1.464443E-2</v>
+      </c>
+      <c r="O20">
+        <v>1.5228149999999999E-2</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="1"/>
+        <v>1.4596207999999999E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21">
+        <v>2.0790065E-2</v>
+      </c>
+      <c r="C21">
+        <v>2.3839840000000001E-2</v>
+      </c>
+      <c r="D21">
+        <v>2.2306530000000001E-2</v>
+      </c>
+      <c r="E21">
+        <v>2.6193589999999999E-2</v>
+      </c>
+      <c r="F21">
+        <v>2.5431789999999999E-2</v>
+      </c>
+      <c r="G21">
+        <v>2.6224609999999999E-2</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="0"/>
+        <v>2.4131070833333334E-2</v>
+      </c>
+      <c r="I21" t="s">
+        <v>25</v>
+      </c>
+      <c r="J21">
+        <v>1.2964168999999999E-2</v>
+      </c>
+      <c r="K21">
+        <v>1.7102829999999999E-2</v>
+      </c>
+      <c r="L21">
+        <v>1.2790940000000001E-2</v>
+      </c>
+      <c r="M21">
+        <v>1.428196E-2</v>
+      </c>
+      <c r="N21">
+        <v>1.363494E-2</v>
+      </c>
+      <c r="O21">
+        <v>1.405781E-2</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="1"/>
+        <v>1.4138774833333333E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22">
+        <v>8.7715390000000001E-3</v>
+      </c>
+      <c r="C22">
+        <v>2.315534E-2</v>
+      </c>
+      <c r="D22">
+        <v>3.175269E-2</v>
+      </c>
+      <c r="E22">
+        <v>3.9680220000000002E-2</v>
+      </c>
+      <c r="F22">
+        <v>4.2143229999999997E-2</v>
+      </c>
+      <c r="G22">
+        <v>4.7175349999999998E-2</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="0"/>
+        <v>3.2113061499999998E-2</v>
+      </c>
+      <c r="I22" t="s">
+        <v>26</v>
+      </c>
+      <c r="J22">
+        <v>1.0667752000000001E-2</v>
+      </c>
+      <c r="K22">
+        <v>1.745008E-2</v>
+      </c>
+      <c r="L22">
+        <v>1.3903169999999999E-2</v>
+      </c>
+      <c r="M22">
+        <v>1.533516E-2</v>
+      </c>
+      <c r="N22">
+        <v>1.4577980000000001E-2</v>
+      </c>
+      <c r="O22">
+        <v>1.5178509999999999E-2</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="1"/>
+        <v>1.4518775333333336E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23">
+        <v>8.9317609999999999E-3</v>
+      </c>
+      <c r="C23">
+        <v>2.3187679999999999E-2</v>
+      </c>
+      <c r="D23">
+        <v>3.120297E-2</v>
+      </c>
+      <c r="E23">
+        <v>4.0776069999999998E-2</v>
+      </c>
+      <c r="F23">
+        <v>4.3009360000000003E-2</v>
+      </c>
+      <c r="G23">
+        <v>4.757728E-2</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="0"/>
+        <v>3.2447520166666667E-2</v>
+      </c>
+      <c r="I23" t="s">
+        <v>27</v>
+      </c>
+      <c r="J23">
+        <v>1.1103055000000001E-2</v>
+      </c>
+      <c r="K23">
+        <v>1.7445800000000001E-2</v>
+      </c>
+      <c r="L23">
+        <v>1.369984E-2</v>
+      </c>
+      <c r="M23">
+        <v>1.550152E-2</v>
+      </c>
+      <c r="N23">
+        <v>1.468878E-2</v>
+      </c>
+      <c r="O23">
+        <v>1.528877E-2</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="1"/>
+        <v>1.4621294166666668E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24">
+        <v>1.974325E-2</v>
+      </c>
+      <c r="C24">
+        <v>2.3704329999999999E-2</v>
+      </c>
+      <c r="D24">
+        <v>2.2641930000000001E-2</v>
+      </c>
+      <c r="E24">
+        <v>2.6775839999999999E-2</v>
+      </c>
+      <c r="F24">
+        <v>2.607077E-2</v>
+      </c>
+      <c r="G24">
+        <v>2.6760490000000001E-2</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="0"/>
+        <v>2.4282768333333333E-2</v>
+      </c>
+      <c r="I24" t="s">
+        <v>28</v>
+      </c>
+      <c r="J24">
+        <v>1.3095170999999999E-2</v>
+      </c>
+      <c r="K24">
+        <v>1.7030690000000001E-2</v>
+      </c>
+      <c r="L24">
+        <v>1.2730389999999999E-2</v>
+      </c>
+      <c r="M24">
+        <v>1.425654E-2</v>
+      </c>
+      <c r="N24">
+        <v>1.361706E-2</v>
+      </c>
+      <c r="O24">
+        <v>1.403271E-2</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="1"/>
+        <v>1.41270935E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25">
+        <v>6.303739E-3</v>
+      </c>
+      <c r="C25">
+        <v>2.3134490000000001E-2</v>
+      </c>
+      <c r="D25">
+        <v>3.5044579999999999E-2</v>
+      </c>
+      <c r="E25">
+        <v>4.3023060000000002E-2</v>
+      </c>
+      <c r="F25">
+        <v>4.709269E-2</v>
+      </c>
+      <c r="G25">
+        <v>5.3521520000000003E-2</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="0"/>
+        <v>3.4686679833333338E-2</v>
+      </c>
+      <c r="I25" t="s">
+        <v>29</v>
+      </c>
+      <c r="J25">
+        <v>1.0781302E-2</v>
+      </c>
+      <c r="K25">
+        <v>1.74091E-2</v>
+      </c>
+      <c r="L25">
+        <v>1.3876899999999999E-2</v>
+      </c>
+      <c r="M25">
+        <v>1.5390920000000001E-2</v>
+      </c>
+      <c r="N25">
+        <v>1.464087E-2</v>
+      </c>
+      <c r="O25">
+        <v>1.527185E-2</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="1"/>
+        <v>1.4561823666666668E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50C38C04-1512-4841-B639-18B91D94C5F8}">
+  <dimension ref="A1:AA25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A1" s="1">
+        <v>0.177940934</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="1">
+        <v>0.12657708000000001</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="1">
+        <v>0.10782264</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="1">
+        <v>0.10047307</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1" s="1">
+        <v>9.7523869999999999E-2</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K1" s="1">
+        <v>9.0765129999999999E-2</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M1" s="1">
+        <v>0.11685045399999998</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="O1" s="1">
+        <v>7.1615442000000001E-2</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>4.5010790000000002E-2</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="S1" s="1">
+        <v>4.1218829999999998E-2</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="U1" s="1">
+        <v>3.7893780000000002E-2</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="W1" s="1">
+        <v>3.7133060000000002E-2</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y1" s="1">
+        <v>3.475843E-2</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA1" s="1">
+        <v>4.4605055333333331E-2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>0.115636724</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="1">
+        <v>9.0691869999999994E-2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0.10293666999999999</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2" s="1">
+        <v>9.4783649999999997E-2</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2" s="1">
+        <v>9.4711420000000004E-2</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K2" s="1">
+        <v>8.7904529999999995E-2</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M2" s="1">
+        <v>9.7777477333333321E-2</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="O2" s="1">
+        <v>5.0424256000000001E-2</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>4.7654700000000001E-2</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="S2" s="1">
+        <v>4.4395850000000001E-2</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="U2" s="1">
+        <v>4.018907E-2</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="W2" s="1">
+        <v>3.8378290000000002E-2</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>3.5308680000000002E-2</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA2" s="1">
+        <v>4.2725141000000001E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>0.115449501</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="1">
+        <v>9.1525400000000007E-2</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.10289745</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" s="1">
+        <v>9.5431749999999996E-2</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I3" s="1">
+        <v>9.5481689999999994E-2</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K3" s="1">
+        <v>8.8471930000000004E-2</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M3" s="1">
+        <v>9.8209620166666664E-2</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="O3" s="1">
+        <v>4.9961617E-2</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>4.770452E-2</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="S3" s="1">
+        <v>4.440939E-2</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="U3" s="1">
+        <v>4.031233E-2</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="W3" s="1">
+        <v>3.8426229999999999E-2</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>3.5342129999999999E-2</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA3" s="1">
+        <v>4.2692702833333339E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>0.14083651999999999</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.10795585000000001</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.11328096</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0.10376299</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0.10429090000000001</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K4" s="1">
+        <v>9.6701129999999996E-2</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M4" s="1">
+        <v>0.11113805833333333</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="O4" s="1">
+        <v>5.3775402999999999E-2</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>4.8072509999999999E-2</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="S4" s="1">
+        <v>4.500941E-2</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="U4" s="1">
+        <v>4.0986149999999999E-2</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="W4" s="1">
+        <v>3.9407669999999999E-2</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>3.6677170000000002E-2</v>
+      </c>
+      <c r="Z4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA4" s="1">
+        <v>4.3988052166666659E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>0.111195293</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="1">
+        <v>8.8112940000000001E-2</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.10267231</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="1">
+        <v>9.498703E-2</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I5" s="1">
+        <v>9.5198500000000005E-2</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K5" s="1">
+        <v>8.8533440000000005E-2</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M5" s="1">
+        <v>9.6783252166666667E-2</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="O5" s="1">
+        <v>5.0792772E-2</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>4.7525409999999997E-2</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="S5" s="1">
+        <v>4.4196069999999997E-2</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="U5" s="1">
+        <v>4.0141839999999998E-2</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="W5" s="1">
+        <v>3.8298459999999999E-2</v>
+      </c>
+      <c r="X5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>3.5261760000000003E-2</v>
+      </c>
+      <c r="Z5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA5" s="1">
+        <v>4.2702718666666667E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>0.11042386899999999</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="1">
+        <v>8.87632E-2</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.10241073000000001</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" s="1">
+        <v>9.5770460000000002E-2</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I6" s="1">
+        <v>9.6094869999999999E-2</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K6" s="1">
+        <v>8.9275530000000006E-2</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M6" s="1">
+        <v>9.7123109833333332E-2</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="O6" s="1">
+        <v>5.0321879E-2</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>4.7586959999999998E-2</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="S6" s="1">
+        <v>4.4185299999999997E-2</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="U6" s="1">
+        <v>4.025157E-2</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="W6" s="1">
+        <v>3.8329960000000003E-2</v>
+      </c>
+      <c r="X6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>3.5292039999999997E-2</v>
+      </c>
+      <c r="Z6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA6" s="1">
+        <v>4.2661284833333334E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>0.140176205</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.10754130000000001</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.11519778999999999</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0.1055826</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0.10668139</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K7" s="1">
+        <v>9.9405720000000003E-2</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M7" s="1">
+        <v>0.11243083416666666</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="O7" s="1">
+        <v>5.4166798000000002E-2</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>4.7976049999999999E-2</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="S7" s="1">
+        <v>4.4981100000000003E-2</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="U7" s="1">
+        <v>4.0997440000000003E-2</v>
+      </c>
+      <c r="V7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="W7" s="1">
+        <v>3.9456829999999998E-2</v>
+      </c>
+      <c r="X7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y7" s="1">
+        <v>3.6801929999999997E-2</v>
+      </c>
+      <c r="Z7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA7" s="1">
+        <v>4.4063357999999997E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>6.3099865000000005E-2</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="1">
+        <v>6.8165180000000006E-2</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="1">
+        <v>7.8755210000000006E-2</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G8" s="1">
+        <v>8.2505389999999998E-2</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I8" s="1">
+        <v>8.7065600000000007E-2</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K8" s="1">
+        <v>9.3488699999999994E-2</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M8" s="1">
+        <v>7.8846657500000014E-2</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="O8" s="1">
+        <v>1.3195528E-2</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>1.750175E-2</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="S8" s="1">
+        <v>2.811661E-2</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="U8" s="1">
+        <v>3.0352529999999999E-2</v>
+      </c>
+      <c r="V8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="W8" s="1">
+        <v>3.4342879999999999E-2</v>
+      </c>
+      <c r="X8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y8" s="1">
+        <v>3.9238729999999999E-2</v>
+      </c>
+      <c r="Z8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA8" s="1">
+        <v>2.7124671333333333E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>5.4834031999999998E-2</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="1">
+        <v>5.6060350000000002E-2</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="1">
+        <v>7.881088E-2</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G9" s="1">
+        <v>7.9188670000000003E-2</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I9" s="1">
+        <v>8.8830210000000007E-2</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K9" s="1">
+        <v>9.8415639999999999E-2</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M9" s="1">
+        <v>7.6023297000000004E-2</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="O9" s="1">
+        <v>9.0073889999999993E-3</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>1.3818189999999999E-2</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="S9" s="1">
+        <v>2.7321910000000001E-2</v>
+      </c>
+      <c r="T9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="U9" s="1">
+        <v>2.9441709999999999E-2</v>
+      </c>
+      <c r="V9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="W9" s="1">
+        <v>3.3921220000000002E-2</v>
+      </c>
+      <c r="X9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y9" s="1">
+        <v>3.9056239999999999E-2</v>
+      </c>
+      <c r="Z9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA9" s="1">
+        <v>2.5427776499999999E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>4.1809262999999999E-2</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="1">
+        <v>4.3853959999999997E-2</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="1">
+        <v>6.4291119999999993E-2</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" s="1">
+        <v>6.5817180000000003E-2</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I10" s="1">
+        <v>7.4429179999999998E-2</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K10" s="1">
+        <v>8.2962300000000003E-2</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M10" s="1">
+        <v>6.219383383333333E-2</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="O10" s="1">
+        <v>8.8612299999999995E-3</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>1.354342E-2</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="S10" s="1">
+        <v>2.7006849999999999E-2</v>
+      </c>
+      <c r="T10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="U10" s="1">
+        <v>2.9097970000000001E-2</v>
+      </c>
+      <c r="V10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="W10" s="1">
+        <v>3.3523480000000001E-2</v>
+      </c>
+      <c r="X10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y10" s="1">
+        <v>3.8586639999999998E-2</v>
+      </c>
+      <c r="Z10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA10" s="1">
+        <v>2.5103265E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>5.4834031999999998E-2</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="1">
+        <v>5.6060350000000002E-2</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="1">
+        <v>7.881088E-2</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G11" s="1">
+        <v>7.9188670000000003E-2</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I11" s="1">
+        <v>8.8830210000000007E-2</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K11" s="1">
+        <v>9.8415639999999999E-2</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M11" s="1">
+        <v>7.6023297000000004E-2</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="O11" s="1">
+        <v>9.0073889999999993E-3</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>1.3818189999999999E-2</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="S11" s="1">
+        <v>2.7321910000000001E-2</v>
+      </c>
+      <c r="T11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="U11" s="1">
+        <v>2.9441709999999999E-2</v>
+      </c>
+      <c r="V11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="W11" s="1">
+        <v>3.3921220000000002E-2</v>
+      </c>
+      <c r="X11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y11" s="1">
+        <v>3.9056239999999999E-2</v>
+      </c>
+      <c r="Z11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA11" s="1">
+        <v>2.5427776499999999E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>6.6705927999999998E-2</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="1">
+        <v>6.7419770000000004E-2</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="1">
+        <v>9.2812679999999995E-2</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G12" s="1">
+        <v>9.2383629999999994E-2</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0.10464324999999999</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K12" s="1">
+        <v>0.11438513</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M12" s="1">
+        <v>8.9725064666666673E-2</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="O12" s="1">
+        <v>9.1231060000000006E-3</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>1.3926030000000001E-2</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="S12" s="1">
+        <v>2.7448219999999999E-2</v>
+      </c>
+      <c r="T12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="U12" s="1">
+        <v>2.9574309999999999E-2</v>
+      </c>
+      <c r="V12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="W12" s="1">
+        <v>3.4064900000000002E-2</v>
+      </c>
+      <c r="X12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y12" s="1">
+        <v>3.9249329999999999E-2</v>
+      </c>
+      <c r="Z12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA12" s="1">
+        <v>2.5564316E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>4.1288147999999997E-2</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="1">
+        <v>4.3235750000000003E-2</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="1">
+        <v>6.5151429999999996E-2</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G13" s="1">
+        <v>6.6599249999999999E-2</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I13" s="1">
+        <v>7.5861810000000002E-2</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K13" s="1">
+        <v>8.5102650000000002E-2</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M13" s="1">
+        <v>6.2873172999999991E-2</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="O13" s="1">
+        <v>8.9699289999999997E-3</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>1.3649659999999999E-2</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="S13" s="1">
+        <v>2.7072289999999999E-2</v>
+      </c>
+      <c r="T13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="U13" s="1">
+        <v>2.9181370000000002E-2</v>
+      </c>
+      <c r="V13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="W13" s="1">
+        <v>3.3603380000000002E-2</v>
+      </c>
+      <c r="X13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y13" s="1">
+        <v>3.8704410000000002E-2</v>
+      </c>
+      <c r="Z13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA13" s="1">
+        <v>2.5196839833333332E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>5.2028431999999999E-2</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="1">
+        <v>5.3131959999999999E-2</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" s="1">
+        <v>7.4478639999999999E-2</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G14" s="1">
+        <v>7.4868240000000003E-2</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I14" s="1">
+        <v>8.4680400000000003E-2</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K14" s="1">
+        <v>9.3387440000000002E-2</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M14" s="1">
+        <v>7.2095852000000002E-2</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="O14" s="1">
+        <v>9.4753119999999996E-3</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>1.3970720000000001E-2</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="S14" s="1">
+        <v>2.7614340000000001E-2</v>
+      </c>
+      <c r="T14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="U14" s="1">
+        <v>2.95115E-2</v>
+      </c>
+      <c r="V14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="W14" s="1">
+        <v>3.4107699999999998E-2</v>
+      </c>
+      <c r="X14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y14" s="1">
+        <v>3.9594799999999999E-2</v>
+      </c>
+      <c r="Z14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA14" s="1">
+        <v>2.5712395333333332E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>3.9286619000000002E-2</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="1">
+        <v>2.9027959999999998E-2</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="1">
+        <v>2.105023E-2</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G15" s="1">
+        <v>2.3140979999999998E-2</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I15" s="1">
+        <v>2.2460919999999999E-2</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K15" s="1">
+        <v>2.37851E-2</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M15" s="1">
+        <v>2.6458634833333331E-2</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="O15" s="1">
+        <v>2.4683865999999999E-2</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>1.579962E-2</v>
+      </c>
+      <c r="R15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="S15" s="1">
+        <v>1.2186809999999999E-2</v>
+      </c>
+      <c r="T15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="U15" s="1">
+        <v>1.3641800000000001E-2</v>
+      </c>
+      <c r="V15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="W15" s="1">
+        <v>1.3449269999999999E-2</v>
+      </c>
+      <c r="X15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y15" s="1">
+        <v>1.414665E-2</v>
+      </c>
+      <c r="Z15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA15" s="1">
+        <v>1.5651335999999998E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>3.3985201999999999E-2</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="1">
+        <v>2.4726310000000001E-2</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1.8186250000000001E-2</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G16" s="1">
+        <v>2.0259719999999998E-2</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I16" s="1">
+        <v>1.9757670000000001E-2</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K16" s="1">
+        <v>2.0996540000000001E-2</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M16" s="1">
+        <v>2.2985281999999999E-2</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="O16" s="1">
+        <v>1.6734476000000002E-2</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>1.4758490000000001E-2</v>
+      </c>
+      <c r="R16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="S16" s="1">
+        <v>1.131791E-2</v>
+      </c>
+      <c r="T16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="U16" s="1">
+        <v>1.2914170000000001E-2</v>
+      </c>
+      <c r="V16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="W16" s="1">
+        <v>1.268656E-2</v>
+      </c>
+      <c r="X16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y16" s="1">
+        <v>1.330894E-2</v>
+      </c>
+      <c r="Z16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA16" s="1">
+        <v>1.3620091000000003E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>3.5420669000000002E-2</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="1">
+        <v>2.645221E-2</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1.94276E-2</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G17" s="1">
+        <v>2.178124E-2</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I17" s="1">
+        <v>2.1228940000000002E-2</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K17" s="1">
+        <v>2.254975E-2</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M17" s="1">
+        <v>2.4476734833333336E-2</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="O17" s="1">
+        <v>1.7787448000000001E-2</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>1.5206910000000001E-2</v>
+      </c>
+      <c r="R17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="S17" s="1">
+        <v>1.161005E-2</v>
+      </c>
+      <c r="T17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="U17" s="1">
+        <v>1.3244260000000001E-2</v>
+      </c>
+      <c r="V17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="W17" s="1">
+        <v>1.301598E-2</v>
+      </c>
+      <c r="X17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y17" s="1">
+        <v>1.362353E-2</v>
+      </c>
+      <c r="Z17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA17" s="1">
+        <v>1.4081363E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>1.135573E-2</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="1">
+        <v>2.3275609999999999E-2</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" s="1">
+        <v>2.894383E-2</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G18" s="1">
+        <v>3.7654899999999998E-2</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I18" s="1">
+        <v>3.8639819999999998E-2</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K18" s="1">
+        <v>4.196122E-2</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M18" s="1">
+        <v>3.0305184999999998E-2</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="O18" s="1">
+        <v>1.0989128000000001E-2</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>1.7487160000000002E-2</v>
+      </c>
+      <c r="R18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="S18" s="1">
+        <v>1.375211E-2</v>
+      </c>
+      <c r="T18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="U18" s="1">
+        <v>1.547627E-2</v>
+      </c>
+      <c r="V18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="W18" s="1">
+        <v>1.464443E-2</v>
+      </c>
+      <c r="X18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y18" s="1">
+        <v>1.5228149999999999E-2</v>
+      </c>
+      <c r="Z18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA18" s="1">
+        <v>1.4596207999999999E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>2.0790065E-2</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="1">
+        <v>2.3839840000000001E-2</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E19" s="1">
+        <v>2.2306530000000001E-2</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G19" s="1">
+        <v>2.6193589999999999E-2</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I19" s="1">
+        <v>2.5431789999999999E-2</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K19" s="1">
+        <v>2.6224609999999999E-2</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M19" s="1">
+        <v>2.4131070833333334E-2</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="O19" s="1">
+        <v>1.2964168999999999E-2</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q19" s="1">
+        <v>1.7102829999999999E-2</v>
+      </c>
+      <c r="R19" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="S19" s="1">
+        <v>1.2790940000000001E-2</v>
+      </c>
+      <c r="T19" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="U19" s="1">
+        <v>1.428196E-2</v>
+      </c>
+      <c r="V19" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="W19" s="1">
+        <v>1.363494E-2</v>
+      </c>
+      <c r="X19" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y19" s="1">
+        <v>1.405781E-2</v>
+      </c>
+      <c r="Z19" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA19" s="1">
+        <v>1.4138774833333333E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>8.7715390000000001E-3</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="1">
+        <v>2.315534E-2</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E20" s="1">
+        <v>3.175269E-2</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G20" s="1">
+        <v>3.9680220000000002E-2</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I20" s="1">
+        <v>4.2143229999999997E-2</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K20" s="1">
+        <v>4.7175349999999998E-2</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M20" s="1">
+        <v>3.2113061499999998E-2</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="O20" s="1">
+        <v>1.0667752000000001E-2</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q20" s="1">
+        <v>1.745008E-2</v>
+      </c>
+      <c r="R20" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="S20" s="1">
+        <v>1.3903169999999999E-2</v>
+      </c>
+      <c r="T20" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="U20" s="1">
+        <v>1.533516E-2</v>
+      </c>
+      <c r="V20" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="W20" s="1">
+        <v>1.4577980000000001E-2</v>
+      </c>
+      <c r="X20" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y20" s="1">
+        <v>1.5178509999999999E-2</v>
+      </c>
+      <c r="Z20" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA20" s="1">
+        <v>1.4518775333333336E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>8.9317609999999999E-3</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="1">
+        <v>2.3187679999999999E-2</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E21" s="1">
+        <v>3.120297E-2</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G21" s="1">
+        <v>4.0776069999999998E-2</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I21" s="1">
+        <v>4.3009360000000003E-2</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K21" s="1">
+        <v>4.757728E-2</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M21" s="1">
+        <v>3.2447520166666667E-2</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="O21" s="1">
+        <v>1.1103055000000001E-2</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q21" s="1">
+        <v>1.7445800000000001E-2</v>
+      </c>
+      <c r="R21" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="S21" s="1">
+        <v>1.369984E-2</v>
+      </c>
+      <c r="T21" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="U21" s="1">
+        <v>1.550152E-2</v>
+      </c>
+      <c r="V21" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="W21" s="1">
+        <v>1.468878E-2</v>
+      </c>
+      <c r="X21" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y21" s="1">
+        <v>1.528877E-2</v>
+      </c>
+      <c r="Z21" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA21" s="1">
+        <v>1.4621294166666668E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>1.974325E-2</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="1">
+        <v>2.3704329999999999E-2</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E22" s="1">
+        <v>2.2641930000000001E-2</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G22" s="1">
+        <v>2.6775839999999999E-2</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I22" s="1">
+        <v>2.607077E-2</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K22" s="1">
+        <v>2.6760490000000001E-2</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M22" s="1">
+        <v>2.4282768333333333E-2</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="O22" s="1">
+        <v>1.3095170999999999E-2</v>
+      </c>
+      <c r="P22" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q22" s="1">
+        <v>1.7030690000000001E-2</v>
+      </c>
+      <c r="R22" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="S22" s="1">
+        <v>1.2730389999999999E-2</v>
+      </c>
+      <c r="T22" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="U22" s="1">
+        <v>1.425654E-2</v>
+      </c>
+      <c r="V22" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="W22" s="1">
+        <v>1.361706E-2</v>
+      </c>
+      <c r="X22" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y22" s="1">
+        <v>1.403271E-2</v>
+      </c>
+      <c r="Z22" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA22" s="1">
+        <v>1.41270935E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>6.303739E-3</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" s="1">
+        <v>2.3134490000000001E-2</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E23" s="1">
+        <v>3.5044579999999999E-2</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G23" s="1">
+        <v>4.3023060000000002E-2</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I23" s="1">
+        <v>4.709269E-2</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K23" s="1">
+        <v>5.3521520000000003E-2</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M23" s="1">
+        <v>3.4686679833333338E-2</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="O23" s="1">
+        <v>1.0781302E-2</v>
+      </c>
+      <c r="P23" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q23" s="1">
+        <v>1.74091E-2</v>
+      </c>
+      <c r="R23" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="S23" s="1">
+        <v>1.3876899999999999E-2</v>
+      </c>
+      <c r="T23" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="U23" s="1">
+        <v>1.5390920000000001E-2</v>
+      </c>
+      <c r="V23" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="W23" s="1">
+        <v>1.464087E-2</v>
+      </c>
+      <c r="X23" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y23" s="1">
+        <v>1.527185E-2</v>
+      </c>
+      <c r="Z23" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA23" s="1">
+        <v>1.4561823666666668E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="B24" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P24" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="R24" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T24" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V24" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="X24" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z24" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="B25" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P25" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="R25" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T25" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V25" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="X25" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z25" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/simulation results/RMSE results (gamma=structured and expected).xlsx
+++ b/simulation results/RMSE results (gamma=structured and expected).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xijuan/local-fit-indices2/simulation results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2FEF2E3-12E6-DD4D-ACB0-448F3CC0BC0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE38A3AD-6E38-4247-8BAD-94D5DDE899EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1340" windowWidth="23660" windowHeight="21000" activeTab="3" xr2:uid="{CA617EC3-5ADF-A14C-B94A-F9A693526A99}"/>
+    <workbookView xWindow="0" yWindow="1340" windowWidth="23660" windowHeight="21000" xr2:uid="{CA617EC3-5ADF-A14C-B94A-F9A693526A99}"/>
   </bookViews>
   <sheets>
     <sheet name="original reliable" sheetId="1" r:id="rId1"/>
@@ -160,7 +160,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -193,7 +193,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -510,8 +510,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72B887A4-1473-1749-9216-C67551BFB657}">
   <dimension ref="A1:G155"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" zoomScale="160" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27:G51"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="160" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8459,7 +8459,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50C38C04-1512-4841-B639-18B91D94C5F8}">
   <dimension ref="A1:AA25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
